--- a/INTLINE/data/142/NAV/old/Labour Market Statistics.xlsx
+++ b/INTLINE/data/142/NAV/old/Labour Market Statistics.xlsx
@@ -14,7 +14,7 @@
     <t>Source: NAV</t>
   </si>
   <si>
-    <t>Labour market statistics. December 2021</t>
+    <t>Labour market statistics. March 2022</t>
   </si>
   <si>
     <t>2. Registered unemployed. Number of persons, time series</t>
@@ -62,7 +62,7 @@
     <t>Read chapter 5 in «Om statistikken – arbeidssøkere» on nav.no</t>
   </si>
   <si>
-    <t>January 2012 - december 2021</t>
+    <t>January 2012 - march 2022</t>
   </si>
   <si>
     <t>3. Registered unemployed. Percent of labour force, time series</t>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -557,445 +557,468 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A9" s="9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="10">
-        <v>123969</v>
+        <v>74143</v>
       </c>
       <c r="C9" s="10">
-        <v>120504</v>
+        <v>64439</v>
       </c>
       <c r="D9" s="10">
-        <v>119331</v>
-      </c>
-      <c r="E9" s="10">
-        <v>113259</v>
-      </c>
-      <c r="F9" s="10">
-        <v>94086</v>
-      </c>
-      <c r="G9" s="10">
-        <v>81316</v>
-      </c>
-      <c r="H9" s="10">
-        <v>86774</v>
-      </c>
-      <c r="I9" s="10">
-        <v>75806</v>
-      </c>
-      <c r="J9" s="10">
-        <v>67624</v>
-      </c>
-      <c r="K9" s="10">
-        <v>63298</v>
-      </c>
-      <c r="L9" s="10">
-        <v>59341</v>
-      </c>
-      <c r="M9" s="10">
-        <v>61036</v>
-      </c>
+        <v>58368</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A10" s="9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="11">
-        <v>68050</v>
+        <v>123969</v>
       </c>
       <c r="C10" s="11">
-        <v>65416</v>
+        <v>120504</v>
       </c>
       <c r="D10" s="11">
-        <v>300634</v>
+        <v>119331</v>
       </c>
       <c r="E10" s="11">
-        <v>269013</v>
+        <v>113259</v>
       </c>
       <c r="F10" s="11">
-        <v>181469</v>
+        <v>94086</v>
       </c>
       <c r="G10" s="11">
-        <v>135988</v>
+        <v>81316</v>
       </c>
       <c r="H10" s="11">
-        <v>139838</v>
+        <v>86774</v>
       </c>
       <c r="I10" s="11">
-        <v>122229</v>
+        <v>75806</v>
       </c>
       <c r="J10" s="11">
-        <v>105289</v>
+        <v>67624</v>
       </c>
       <c r="K10" s="11">
-        <v>99412</v>
+        <v>63298</v>
       </c>
       <c r="L10" s="11">
-        <v>108989</v>
+        <v>59341</v>
       </c>
       <c r="M10" s="11">
-        <v>106941</v>
+        <v>61036</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A11" s="9">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B11" s="10">
-        <v>71148</v>
+        <v>68050</v>
       </c>
       <c r="C11" s="10">
-        <v>68302</v>
+        <v>65416</v>
       </c>
       <c r="D11" s="10">
-        <v>66258</v>
+        <v>300634</v>
       </c>
       <c r="E11" s="10">
-        <v>63340</v>
+        <v>269013</v>
       </c>
       <c r="F11" s="10">
-        <v>59813</v>
+        <v>181469</v>
       </c>
       <c r="G11" s="10">
-        <v>60093</v>
+        <v>135988</v>
       </c>
       <c r="H11" s="10">
-        <v>66337</v>
+        <v>139838</v>
       </c>
       <c r="I11" s="10">
-        <v>65061</v>
+        <v>122229</v>
       </c>
       <c r="J11" s="10">
-        <v>61314</v>
+        <v>105289</v>
       </c>
       <c r="K11" s="10">
-        <v>59549</v>
+        <v>99412</v>
       </c>
       <c r="L11" s="10">
-        <v>59457</v>
+        <v>108989</v>
       </c>
       <c r="M11" s="10">
-        <v>60736</v>
+        <v>106941</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A12" s="9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B12" s="11">
-        <v>71849</v>
+        <v>71148</v>
       </c>
       <c r="C12" s="11">
-        <v>69789</v>
+        <v>68302</v>
       </c>
       <c r="D12" s="11">
-        <v>68835</v>
+        <v>66258</v>
       </c>
       <c r="E12" s="11">
-        <v>66797</v>
+        <v>63340</v>
       </c>
       <c r="F12" s="11">
-        <v>60008</v>
+        <v>59813</v>
       </c>
       <c r="G12" s="11">
-        <v>60738</v>
+        <v>60093</v>
       </c>
       <c r="H12" s="11">
-        <v>70558</v>
+        <v>66337</v>
       </c>
       <c r="I12" s="11">
-        <v>67086</v>
+        <v>65061</v>
       </c>
       <c r="J12" s="11">
-        <v>63472</v>
+        <v>61314</v>
       </c>
       <c r="K12" s="11">
-        <v>61531</v>
+        <v>59549</v>
       </c>
       <c r="L12" s="11">
-        <v>62434</v>
+        <v>59457</v>
       </c>
       <c r="M12" s="11">
-        <v>63477</v>
+        <v>60736</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A13" s="9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B13" s="10">
-        <v>88238</v>
+        <v>71849</v>
       </c>
       <c r="C13" s="10">
-        <v>84802</v>
+        <v>69789</v>
       </c>
       <c r="D13" s="10">
-        <v>81327</v>
+        <v>68835</v>
       </c>
       <c r="E13" s="10">
-        <v>78212</v>
+        <v>66797</v>
       </c>
       <c r="F13" s="10">
-        <v>70927</v>
+        <v>60008</v>
       </c>
       <c r="G13" s="10">
-        <v>71482</v>
+        <v>60738</v>
       </c>
       <c r="H13" s="10">
-        <v>77431</v>
+        <v>70558</v>
       </c>
       <c r="I13" s="10">
-        <v>73918</v>
+        <v>67086</v>
       </c>
       <c r="J13" s="10">
-        <v>68879</v>
+        <v>63472</v>
       </c>
       <c r="K13" s="10">
-        <v>66012</v>
+        <v>61531</v>
       </c>
       <c r="L13" s="10">
-        <v>64216</v>
+        <v>62434</v>
       </c>
       <c r="M13" s="10">
-        <v>65375</v>
+        <v>63477</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A14" s="9">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B14" s="11">
-        <v>93284</v>
+        <v>88238</v>
       </c>
       <c r="C14" s="11">
-        <v>90903</v>
+        <v>84802</v>
       </c>
       <c r="D14" s="11">
-        <v>89334</v>
+        <v>81327</v>
       </c>
       <c r="E14" s="11">
-        <v>85471</v>
+        <v>78212</v>
       </c>
       <c r="F14" s="11">
-        <v>80342</v>
+        <v>70927</v>
       </c>
       <c r="G14" s="11">
-        <v>80965</v>
+        <v>71482</v>
       </c>
       <c r="H14" s="11">
-        <v>87736</v>
+        <v>77431</v>
       </c>
       <c r="I14" s="11">
-        <v>84669</v>
+        <v>73918</v>
       </c>
       <c r="J14" s="11">
-        <v>78513</v>
+        <v>68879</v>
       </c>
       <c r="K14" s="11">
-        <v>77822</v>
+        <v>66012</v>
       </c>
       <c r="L14" s="11">
-        <v>78157</v>
+        <v>64216</v>
       </c>
       <c r="M14" s="11">
-        <v>78556</v>
+        <v>65375</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A15" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B15" s="10">
-        <v>82577</v>
+        <v>93284</v>
       </c>
       <c r="C15" s="10">
-        <v>81534</v>
+        <v>90903</v>
       </c>
       <c r="D15" s="10">
-        <v>81011</v>
+        <v>89334</v>
       </c>
       <c r="E15" s="10">
-        <v>79636</v>
+        <v>85471</v>
       </c>
       <c r="F15" s="10">
-        <v>74994</v>
+        <v>80342</v>
       </c>
       <c r="G15" s="10">
-        <v>77310</v>
+        <v>80965</v>
       </c>
       <c r="H15" s="10">
-        <v>85362</v>
+        <v>87736</v>
       </c>
       <c r="I15" s="10">
-        <v>84702</v>
+        <v>84669</v>
       </c>
       <c r="J15" s="10">
-        <v>79623</v>
+        <v>78513</v>
       </c>
       <c r="K15" s="10">
-        <v>79974</v>
+        <v>77822</v>
       </c>
       <c r="L15" s="10">
-        <v>79159</v>
+        <v>78157</v>
       </c>
       <c r="M15" s="10">
-        <v>80846</v>
+        <v>78556</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A16" s="9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B16" s="11">
-        <v>80104</v>
+        <v>82577</v>
       </c>
       <c r="C16" s="11">
-        <v>77872</v>
+        <v>81534</v>
       </c>
       <c r="D16" s="11">
-        <v>76925</v>
+        <v>81011</v>
       </c>
       <c r="E16" s="11">
-        <v>74625</v>
+        <v>79636</v>
       </c>
       <c r="F16" s="11">
-        <v>72495</v>
+        <v>74994</v>
       </c>
       <c r="G16" s="11">
-        <v>73458</v>
+        <v>77310</v>
       </c>
       <c r="H16" s="11">
-        <v>79647</v>
+        <v>85362</v>
       </c>
       <c r="I16" s="11">
-        <v>78927</v>
+        <v>84702</v>
       </c>
       <c r="J16" s="11">
-        <v>74138</v>
+        <v>79623</v>
       </c>
       <c r="K16" s="11">
-        <v>72114</v>
+        <v>79974</v>
       </c>
       <c r="L16" s="11">
-        <v>71008</v>
+        <v>79159</v>
       </c>
       <c r="M16" s="11">
-        <v>71734</v>
+        <v>80846</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A17" s="9">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B17" s="10">
-        <v>71540</v>
+        <v>80104</v>
       </c>
       <c r="C17" s="10">
-        <v>70020</v>
+        <v>77872</v>
       </c>
       <c r="D17" s="10">
-        <v>69969</v>
+        <v>76925</v>
       </c>
       <c r="E17" s="10">
-        <v>68655</v>
+        <v>74625</v>
       </c>
       <c r="F17" s="10">
-        <v>65548</v>
+        <v>72495</v>
       </c>
       <c r="G17" s="10">
-        <v>66596</v>
+        <v>73458</v>
       </c>
       <c r="H17" s="10">
-        <v>74620</v>
+        <v>79647</v>
       </c>
       <c r="I17" s="10">
-        <v>73523</v>
+        <v>78927</v>
       </c>
       <c r="J17" s="10">
-        <v>69564</v>
+        <v>74138</v>
       </c>
       <c r="K17" s="10">
-        <v>68002</v>
+        <v>72114</v>
       </c>
       <c r="L17" s="10">
-        <v>68241</v>
+        <v>71008</v>
       </c>
       <c r="M17" s="10">
-        <v>70346</v>
+        <v>71734</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A18" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="11">
+        <v>71540</v>
+      </c>
+      <c r="C18" s="11">
+        <v>70020</v>
+      </c>
+      <c r="D18" s="11">
+        <v>69969</v>
+      </c>
+      <c r="E18" s="11">
+        <v>68655</v>
+      </c>
+      <c r="F18" s="11">
+        <v>65548</v>
+      </c>
+      <c r="G18" s="11">
+        <v>66596</v>
+      </c>
+      <c r="H18" s="11">
+        <v>74620</v>
+      </c>
+      <c r="I18" s="11">
+        <v>73523</v>
+      </c>
+      <c r="J18" s="11">
+        <v>69564</v>
+      </c>
+      <c r="K18" s="11">
+        <v>68002</v>
+      </c>
+      <c r="L18" s="11">
+        <v>68241</v>
+      </c>
+      <c r="M18" s="11">
+        <v>70346</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A19" s="9">
         <v>2012</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B19" s="10">
         <v>71531</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="10">
         <v>69512</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="10">
         <v>67669</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="10">
         <v>66756</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="10">
         <v>61449</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="10">
         <v>64196</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H19" s="10">
         <v>71738</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I19" s="10">
         <v>68445</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J19" s="10">
         <v>63060</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K19" s="10">
         <v>60757</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L19" s="10">
         <v>60503</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M19" s="10">
         <v>62569</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="75.1953" customHeight="1"/>
-    <row r="20" s="1" customFormat="1" ht="18.1322" customHeight="1">
-      <c r="A20" s="12" t="s">
+    <row r="20" s="1" customFormat="1" ht="57.0631" customHeight="1"/>
+    <row r="21" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="18.1322" customHeight="1">
-      <c r="A21" s="13" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A22" r:id="rId1"/>
   </hyperlinks>
   <pageSetup paperSize="9" scale="100" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
@@ -1005,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1140,376 +1163,358 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A9" s="17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="18">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="C9" s="18">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="D9" s="18">
-        <v>4.2</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="G9" s="18">
-        <v>2.9</v>
-      </c>
-      <c r="H9" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="I9" s="18">
-        <v>2.7</v>
-      </c>
-      <c r="J9" s="18">
-        <v>2.4</v>
-      </c>
-      <c r="K9" s="18">
-        <v>2.2</v>
-      </c>
-      <c r="L9" s="18">
-        <v>2.1</v>
-      </c>
-      <c r="M9" s="18">
-        <v>2.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A10" s="17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="19">
+        <v>4.4</v>
+      </c>
+      <c r="C10" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="D10" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>4</v>
+      </c>
+      <c r="F10" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="G10" s="19">
+        <v>2.9</v>
+      </c>
+      <c r="H10" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="I10" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="J10" s="19">
         <v>2.4</v>
       </c>
-      <c r="C10" s="19">
-        <v>2.3</v>
-      </c>
-      <c r="D10" s="19">
-        <v>10.6</v>
-      </c>
-      <c r="E10" s="19">
-        <v>9.5</v>
-      </c>
-      <c r="F10" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="G10" s="19">
-        <v>4.8</v>
-      </c>
-      <c r="H10" s="19">
-        <v>4.9</v>
-      </c>
-      <c r="I10" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="J10" s="19">
-        <v>3.7</v>
-      </c>
       <c r="K10" s="19">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L10" s="19">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="M10" s="19">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A11" s="17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B11" s="18">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="C11" s="18">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D11" s="18">
-        <v>2.4</v>
+        <v>10.6</v>
       </c>
       <c r="E11" s="18">
-        <v>2.3</v>
+        <v>9.5</v>
       </c>
       <c r="F11" s="18">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="G11" s="18">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H11" s="18">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="I11" s="18">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="J11" s="18">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="K11" s="18">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L11" s="18">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="M11" s="18">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A12" s="17">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B12" s="19">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C12" s="19">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D12" s="19">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="E12" s="19">
+        <v>2.3</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="G12" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="H12" s="19">
         <v>2.4</v>
       </c>
-      <c r="F12" s="19">
+      <c r="I12" s="19">
+        <v>2.3</v>
+      </c>
+      <c r="J12" s="19">
         <v>2.2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="K12" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="L12" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="M12" s="19">
         <v>2.2</v>
-      </c>
-      <c r="H12" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="I12" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="J12" s="19">
-        <v>2.3</v>
-      </c>
-      <c r="K12" s="19">
-        <v>2.2</v>
-      </c>
-      <c r="L12" s="19">
-        <v>2.3</v>
-      </c>
-      <c r="M12" s="19">
-        <v>2.3</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A13" s="17">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B13" s="18">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="C13" s="18">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D13" s="18">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="E13" s="18">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="F13" s="18">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="G13" s="18">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H13" s="18">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="I13" s="18">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="J13" s="18">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K13" s="18">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L13" s="18">
         <v>2.3</v>
       </c>
       <c r="M13" s="18">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A14" s="17">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B14" s="19">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="C14" s="19">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D14" s="19">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="E14" s="19">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="F14" s="19">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G14" s="19">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H14" s="19">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I14" s="19">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J14" s="19">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="K14" s="19">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L14" s="19">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="M14" s="19">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A15" s="17">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B15" s="18">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="C15" s="18">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D15" s="18">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E15" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="F15" s="18">
         <v>2.9</v>
       </c>
-      <c r="F15" s="18">
-        <v>2.7</v>
-      </c>
       <c r="G15" s="18">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H15" s="18">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I15" s="18">
         <v>3.1</v>
       </c>
       <c r="J15" s="18">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="K15" s="18">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="L15" s="18">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M15" s="18">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A16" s="17">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B16" s="19">
         <v>3</v>
       </c>
       <c r="C16" s="19">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19">
+        <v>3</v>
+      </c>
+      <c r="E16" s="19">
         <v>2.9</v>
-      </c>
-      <c r="D16" s="19">
-        <v>2.9</v>
-      </c>
-      <c r="E16" s="19">
-        <v>2.8</v>
       </c>
       <c r="F16" s="19">
         <v>2.7</v>
       </c>
       <c r="G16" s="19">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H16" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="I16" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="J16" s="19">
+        <v>2.9</v>
+      </c>
+      <c r="K16" s="19">
+        <v>2.9</v>
+      </c>
+      <c r="L16" s="19">
+        <v>2.9</v>
+      </c>
+      <c r="M16" s="19">
         <v>3</v>
-      </c>
-      <c r="I16" s="19">
-        <v>2.9</v>
-      </c>
-      <c r="J16" s="19">
-        <v>2.7</v>
-      </c>
-      <c r="K16" s="19">
-        <v>2.7</v>
-      </c>
-      <c r="L16" s="19">
-        <v>2.6</v>
-      </c>
-      <c r="M16" s="19">
-        <v>2.7</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A17" s="17">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B17" s="18">
+        <v>3</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="F17" s="18">
         <v>2.7</v>
       </c>
-      <c r="C17" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="D17" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="E17" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="F17" s="18">
-        <v>2.5</v>
-      </c>
       <c r="G17" s="18">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H17" s="18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I17" s="18">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J17" s="18">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K17" s="18">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L17" s="18">
         <v>2.6</v>
       </c>
       <c r="M17" s="18">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A18" s="17">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B18" s="19">
         <v>2.7</v>
@@ -1521,64 +1526,105 @@
         <v>2.6</v>
       </c>
       <c r="E18" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="F18" s="19">
         <v>2.5</v>
       </c>
-      <c r="F18" s="19">
+      <c r="G18" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="I18" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="J18" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="L18" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="M18" s="19">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A19" s="17">
+        <v>2012</v>
+      </c>
+      <c r="B19" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="18">
         <v>2.3</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G19" s="18">
         <v>2.4</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H19" s="18">
         <v>2.7</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I19" s="18">
         <v>2.6</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J19" s="18">
         <v>2.4</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K19" s="18">
         <v>2.3</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L19" s="18">
         <v>2.3</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M19" s="18">
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="75.1953" customHeight="1"/>
-    <row r="20" s="1" customFormat="1" ht="18.1322" customHeight="1">
-      <c r="A20" s="12" t="s">
+    <row r="20" s="1" customFormat="1" ht="57.0631" customHeight="1"/>
+    <row r="21" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="18.1322" customHeight="1">
-      <c r="A21" s="13" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A22" r:id="rId1"/>
   </hyperlinks>
   <pageSetup paperSize="9" scale="100" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
